--- a/dataExcel/【P90（StatTrak™） _ 二西莫夫 (久经沙场)】悠悠有品近1个月-总览.xlsx
+++ b/dataExcel/【P90（StatTrak™） _ 二西莫夫 (久经沙场)】悠悠有品近1个月-总览.xlsx
@@ -431,16 +431,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-17 19:17:32</v>
+        <v>2023-09-19 12:40:14</v>
       </c>
       <c r="B8">
-        <v>147</v>
+        <v>145.99</v>
       </c>
       <c r="C8">
-        <v>162.76</v>
+        <v>175.44</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0.08</v>
@@ -449,27 +449,27 @@
         <v>0.06</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-18 00:31:23</v>
+        <v>2023-09-19 17:49:35</v>
       </c>
       <c r="B9">
-        <v>147</v>
+        <v>145.49</v>
       </c>
       <c r="C9">
-        <v>162.76</v>
+        <v>175.44</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>0.08</v>
@@ -478,27 +478,27 @@
         <v>0.06</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-18 05:38:21</v>
+        <v>2023-09-19 23:02:10</v>
       </c>
       <c r="B10">
-        <v>147</v>
+        <v>145.99</v>
       </c>
       <c r="C10">
-        <v>163.28</v>
+        <v>175.44</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0.08</v>
@@ -510,24 +510,24 @@
         <v>15</v>
       </c>
       <c r="H10">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-18 10:51:12</v>
+        <v>2023-09-20 04:11:05</v>
       </c>
       <c r="B11">
-        <v>147</v>
+        <v>145.99</v>
       </c>
       <c r="C11">
-        <v>163.28</v>
+        <v>170.62</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>0.08</v>
@@ -539,24 +539,24 @@
         <v>15</v>
       </c>
       <c r="H11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-18 15:57:33</v>
+        <v>2023-09-20 09:19:12</v>
       </c>
       <c r="B12">
-        <v>147</v>
+        <v>145.99</v>
       </c>
       <c r="C12">
-        <v>163.28</v>
+        <v>170.62</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0.08</v>
@@ -565,27 +565,27 @@
         <v>0.06</v>
       </c>
       <c r="G12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-18 21:07:33</v>
+        <v>2023-09-20 14:33:37</v>
       </c>
       <c r="B13">
-        <v>147</v>
+        <v>144.99</v>
       </c>
       <c r="C13">
-        <v>163.28</v>
+        <v>170.62</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0.08</v>
@@ -594,27 +594,27 @@
         <v>0.06</v>
       </c>
       <c r="G13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-19 02:19:52</v>
+        <v>2023-09-20 19:39:31</v>
       </c>
       <c r="B14">
-        <v>146</v>
+        <v>144.49</v>
       </c>
       <c r="C14">
-        <v>175.44</v>
+        <v>170.62</v>
       </c>
       <c r="D14">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>0.08</v>
@@ -623,27 +623,27 @@
         <v>0.06</v>
       </c>
       <c r="G14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I14">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-19 07:27:26</v>
+        <v>2023-09-21 00:50:25</v>
       </c>
       <c r="B15">
-        <v>146</v>
+        <v>145.99</v>
       </c>
       <c r="C15">
-        <v>175.44</v>
+        <v>170.62</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0.08</v>
@@ -652,27 +652,27 @@
         <v>0.06</v>
       </c>
       <c r="G15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I15">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-19 12:40:14</v>
+        <v>2023-09-21 06:00:28</v>
       </c>
       <c r="B16">
         <v>145.99</v>
       </c>
       <c r="C16">
-        <v>175.44</v>
+        <v>172.71</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0.08</v>
@@ -681,27 +681,27 @@
         <v>0.06</v>
       </c>
       <c r="G16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16">
         <v>127</v>
       </c>
       <c r="I16">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-19 17:49:35</v>
+        <v>2023-09-21 11:08:38</v>
       </c>
       <c r="B17">
-        <v>145.49</v>
+        <v>145.99</v>
       </c>
       <c r="C17">
-        <v>175.44</v>
+        <v>172.71</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0.08</v>
@@ -710,329 +710,329 @@
         <v>0.06</v>
       </c>
       <c r="G17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I17">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-19 23:02:10</v>
+        <v>2023-09-21 16:21:09</v>
       </c>
       <c r="B18">
         <v>145.99</v>
       </c>
       <c r="C18">
-        <v>175.44</v>
+        <v>172.71</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E18">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F18">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-20 04:11:05</v>
+        <v>2023-09-21 21:30:08</v>
       </c>
       <c r="B19">
-        <v>145.99</v>
+        <v>146</v>
       </c>
       <c r="C19">
-        <v>170.62</v>
+        <v>172.71</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F19">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-20 09:19:12</v>
+        <v>2023-09-22 02:41:41</v>
       </c>
       <c r="B20">
-        <v>145.99</v>
+        <v>146</v>
       </c>
       <c r="C20">
-        <v>170.62</v>
+        <v>172.44</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F20">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H20">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-20 14:33:37</v>
+        <v>2023-09-22 07:50:19</v>
       </c>
       <c r="B21">
-        <v>144.99</v>
+        <v>146</v>
       </c>
       <c r="C21">
-        <v>170.62</v>
+        <v>172.44</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F21">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H21">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I21">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-20 19:39:31</v>
+        <v>2023-09-22 12:59:46</v>
       </c>
       <c r="B22">
-        <v>144.49</v>
+        <v>146</v>
       </c>
       <c r="C22">
-        <v>170.62</v>
+        <v>172.44</v>
       </c>
       <c r="D22">
         <v>32</v>
       </c>
       <c r="E22">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F22">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="G22">
         <v>15</v>
       </c>
       <c r="H22">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I22">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-21 00:50:25</v>
+        <v>2023-09-22 18:10:07</v>
       </c>
       <c r="B23">
-        <v>145.99</v>
+        <v>146</v>
       </c>
       <c r="C23">
-        <v>170.62</v>
+        <v>172.44</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E23">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F23">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="G23">
         <v>15</v>
       </c>
       <c r="H23">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I23">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-21 06:00:28</v>
+        <v>2023-09-22 23:20:51</v>
       </c>
       <c r="B24">
-        <v>145.99</v>
+        <v>145</v>
       </c>
       <c r="C24">
-        <v>172.71</v>
+        <v>172.44</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E24">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F24">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="G24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H24">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I24">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-21 11:08:38</v>
+        <v>2023-09-23 04:30:13</v>
       </c>
       <c r="B25">
-        <v>145.99</v>
+        <v>145</v>
       </c>
       <c r="C25">
-        <v>172.71</v>
+        <v>175.24</v>
       </c>
       <c r="D25">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E25">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F25">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="G25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H25">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I25">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-21 16:21:09</v>
+        <v>2023-09-23 09:40:31</v>
       </c>
       <c r="B26">
-        <v>145.99</v>
+        <v>145</v>
       </c>
       <c r="C26">
-        <v>172.71</v>
+        <v>175.24</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E26">
         <v>0.09</v>
       </c>
       <c r="F26">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G26">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H26">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I26">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-21 21:30:08</v>
+        <v>2023-09-23 14:49:43</v>
       </c>
       <c r="B27">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C27">
-        <v>172.71</v>
+        <v>175.24</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>0.09</v>
       </c>
       <c r="F27">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H27">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I27">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-22 02:41:41</v>
+        <v>2023-09-23 20:00:24</v>
       </c>
       <c r="B28">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C28">
-        <v>172.44</v>
+        <v>175.24</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28">
         <v>0.09</v>
       </c>
       <c r="F28">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G28">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H28">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I28">
         <v>12</v>
@@ -1040,45 +1040,45 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-22 07:50:19</v>
+        <v>2023-09-24 01:08:48</v>
       </c>
       <c r="B29">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C29">
-        <v>172.44</v>
+        <v>175.24</v>
       </c>
       <c r="D29">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E29">
         <v>0.09</v>
       </c>
       <c r="F29">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G29">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H29">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I29">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-22 12:59:46</v>
+        <v>2023-09-24 06:19:56</v>
       </c>
       <c r="B30">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C30">
-        <v>172.44</v>
+        <v>166.99</v>
       </c>
       <c r="D30">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30">
         <v>0.09</v>
@@ -1087,10 +1087,10 @@
         <v>0.07</v>
       </c>
       <c r="G30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H30">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I30">
         <v>12</v>
@@ -1098,16 +1098,16 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-22 18:10:07</v>
+        <v>2023-09-24 11:31:25</v>
       </c>
       <c r="B31">
-        <v>146</v>
+        <v>143.5</v>
       </c>
       <c r="C31">
-        <v>172.44</v>
+        <v>166.99</v>
       </c>
       <c r="D31">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E31">
         <v>0.09</v>
@@ -1116,27 +1116,27 @@
         <v>0.07</v>
       </c>
       <c r="G31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H31">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I31">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-22 23:20:51</v>
+        <v>2023-09-24 16:41:25</v>
       </c>
       <c r="B32">
-        <v>145</v>
+        <v>143.5</v>
       </c>
       <c r="C32">
-        <v>172.44</v>
+        <v>166.99</v>
       </c>
       <c r="D32">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E32">
         <v>0.09</v>
@@ -1148,36 +1148,36 @@
         <v>16</v>
       </c>
       <c r="H32">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I32">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-23 04:30:13</v>
+        <v>2023-09-24 21:51:42</v>
       </c>
       <c r="B33">
-        <v>145</v>
+        <v>143.5</v>
       </c>
       <c r="C33">
-        <v>175.24</v>
+        <v>166.99</v>
       </c>
       <c r="D33">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E33">
         <v>0.09</v>
       </c>
       <c r="F33">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H33">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I33">
         <v>11</v>
@@ -1185,19 +1185,19 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-23 09:40:31</v>
+        <v>2023-09-25 03:00:45</v>
       </c>
       <c r="B34">
-        <v>145</v>
+        <v>143.5</v>
       </c>
       <c r="C34">
-        <v>175.24</v>
+        <v>173.16</v>
       </c>
       <c r="D34">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E34">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F34">
         <v>0.07</v>
@@ -1206,7 +1206,7 @@
         <v>16</v>
       </c>
       <c r="H34">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I34">
         <v>11</v>
@@ -1214,57 +1214,57 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-23 14:49:43</v>
+        <v>2023-09-25 08:11:24</v>
       </c>
       <c r="B35">
-        <v>145</v>
+        <v>143.5</v>
       </c>
       <c r="C35">
-        <v>175.24</v>
+        <v>173.16</v>
       </c>
       <c r="D35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E35">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F35">
         <v>0.07</v>
       </c>
       <c r="G35">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H35">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I35">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-23 20:00:24</v>
+        <v>2023-09-25 13:22:14</v>
       </c>
       <c r="B36">
-        <v>145</v>
+        <v>143.5</v>
       </c>
       <c r="C36">
-        <v>175.24</v>
+        <v>173.16</v>
       </c>
       <c r="D36">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E36">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F36">
         <v>0.07</v>
       </c>
       <c r="G36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H36">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I36">
         <v>12</v>
@@ -1272,161 +1272,161 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-24 01:08:48</v>
+        <v>2023-09-25 18:31:29</v>
       </c>
       <c r="B37">
-        <v>145</v>
+        <v>143.5</v>
       </c>
       <c r="C37">
-        <v>175.24</v>
+        <v>173.16</v>
       </c>
       <c r="D37">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E37">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F37">
         <v>0.07</v>
       </c>
       <c r="G37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H37">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I37">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-24 06:19:56</v>
+        <v>2023-09-25 23:41:32</v>
       </c>
       <c r="B38">
-        <v>144</v>
+        <v>143.5</v>
       </c>
       <c r="C38">
-        <v>166.99</v>
+        <v>173.16</v>
       </c>
       <c r="D38">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E38">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F38">
         <v>0.07</v>
       </c>
       <c r="G38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H38">
         <v>133</v>
       </c>
       <c r="I38">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-24 11:31:25</v>
+        <v>2023-09-26 04:51:21</v>
       </c>
       <c r="B39">
         <v>143.5</v>
       </c>
       <c r="C39">
-        <v>166.99</v>
+        <v>163.87</v>
       </c>
       <c r="D39">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E39">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F39">
         <v>0.07</v>
       </c>
       <c r="G39">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H39">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I39">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-24 16:41:25</v>
+        <v>2023-09-26 09:59:51</v>
       </c>
       <c r="B40">
         <v>143.5</v>
       </c>
       <c r="C40">
-        <v>166.99</v>
+        <v>163.87</v>
       </c>
       <c r="D40">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E40">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F40">
         <v>0.07</v>
       </c>
       <c r="G40">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H40">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I40">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-24 21:51:42</v>
+        <v>2023-09-26 15:12:52</v>
       </c>
       <c r="B41">
         <v>143.5</v>
       </c>
       <c r="C41">
-        <v>166.99</v>
+        <v>163.87</v>
       </c>
       <c r="D41">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E41">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F41">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H41">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I41">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-25 03:00:45</v>
+        <v>2023-09-26 20:23:11</v>
       </c>
       <c r="B42">
         <v>143.5</v>
       </c>
       <c r="C42">
-        <v>173.16</v>
+        <v>163.87</v>
       </c>
       <c r="D42">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E42">
         <v>0.08</v>
@@ -1435,24 +1435,24 @@
         <v>0.07</v>
       </c>
       <c r="G42">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H42">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I42">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-25 08:11:24</v>
+        <v>2023-09-27 01:29:59</v>
       </c>
       <c r="B43">
         <v>143.5</v>
       </c>
       <c r="C43">
-        <v>173.16</v>
+        <v>163.87</v>
       </c>
       <c r="D43">
         <v>35</v>
@@ -1464,24 +1464,24 @@
         <v>0.07</v>
       </c>
       <c r="G43">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H43">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I43">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-25 13:22:14</v>
+        <v>2023-09-27 06:42:30</v>
       </c>
       <c r="B44">
         <v>143.5</v>
       </c>
       <c r="C44">
-        <v>173.16</v>
+        <v>160.68</v>
       </c>
       <c r="D44">
         <v>35</v>
@@ -1493,24 +1493,24 @@
         <v>0.07</v>
       </c>
       <c r="G44">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H44">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I44">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-25 18:31:29</v>
+        <v>2023-09-27 11:51:03</v>
       </c>
       <c r="B45">
         <v>143.5</v>
       </c>
       <c r="C45">
-        <v>173.16</v>
+        <v>160.68</v>
       </c>
       <c r="D45">
         <v>35</v>
@@ -1522,27 +1522,27 @@
         <v>0.07</v>
       </c>
       <c r="G45">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H45">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I45">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-25 23:41:32</v>
+        <v>2023-09-27 17:00:34</v>
       </c>
       <c r="B46">
-        <v>143.5</v>
+        <v>144</v>
       </c>
       <c r="C46">
-        <v>173.16</v>
+        <v>160.68</v>
       </c>
       <c r="D46">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E46">
         <v>0.08</v>
@@ -1551,27 +1551,27 @@
         <v>0.07</v>
       </c>
       <c r="G46">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H46">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I46">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-26 04:51:21</v>
+        <v>2023-09-27 22:11:33</v>
       </c>
       <c r="B47">
-        <v>143.5</v>
+        <v>144</v>
       </c>
       <c r="C47">
-        <v>163.87</v>
+        <v>160.68</v>
       </c>
       <c r="D47">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E47">
         <v>0.08</v>
@@ -1580,27 +1580,27 @@
         <v>0.07</v>
       </c>
       <c r="G47">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H47">
         <v>130</v>
       </c>
       <c r="I47">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-26 09:59:51</v>
+        <v>2023-09-28 03:20:46</v>
       </c>
       <c r="B48">
-        <v>143.5</v>
+        <v>143.9</v>
       </c>
       <c r="C48">
-        <v>163.87</v>
+        <v>164.71</v>
       </c>
       <c r="D48">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E48">
         <v>0.08</v>
@@ -1609,27 +1609,27 @@
         <v>0.07</v>
       </c>
       <c r="G48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H48">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I48">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-26 15:12:52</v>
+        <v>2023-09-28 08:32:09</v>
       </c>
       <c r="B49">
-        <v>143.5</v>
+        <v>143.9</v>
       </c>
       <c r="C49">
-        <v>163.87</v>
+        <v>164.71</v>
       </c>
       <c r="D49">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E49">
         <v>0.08</v>
@@ -1638,27 +1638,27 @@
         <v>0.07</v>
       </c>
       <c r="G49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H49">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I49">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-26 20:23:11</v>
+        <v>2023-09-28 13:40:40</v>
       </c>
       <c r="B50">
-        <v>143.5</v>
+        <v>139</v>
       </c>
       <c r="C50">
-        <v>163.87</v>
+        <v>164.71</v>
       </c>
       <c r="D50">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E50">
         <v>0.08</v>
@@ -1667,27 +1667,27 @@
         <v>0.07</v>
       </c>
       <c r="G50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H50">
         <v>130</v>
       </c>
       <c r="I50">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-27 01:29:59</v>
+        <v>2023-09-28 18:45:25</v>
       </c>
       <c r="B51">
-        <v>143.5</v>
+        <v>139</v>
       </c>
       <c r="C51">
-        <v>163.87</v>
+        <v>164.71</v>
       </c>
       <c r="D51">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E51">
         <v>0.08</v>
@@ -1699,24 +1699,24 @@
         <v>13</v>
       </c>
       <c r="H51">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I51">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-27 06:42:30</v>
+        <v>2023-09-28 23:55:41</v>
       </c>
       <c r="B52">
-        <v>143.5</v>
+        <v>145</v>
       </c>
       <c r="C52">
-        <v>160.68</v>
+        <v>164.71</v>
       </c>
       <c r="D52">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E52">
         <v>0.08</v>
@@ -1731,21 +1731,21 @@
         <v>130</v>
       </c>
       <c r="I52">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-27 11:51:03</v>
+        <v>2023-09-29 05:06:30</v>
       </c>
       <c r="B53">
-        <v>143.5</v>
+        <v>144.5</v>
       </c>
       <c r="C53">
-        <v>160.68</v>
+        <v>166.72</v>
       </c>
       <c r="D53">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E53">
         <v>0.08</v>
@@ -1760,21 +1760,21 @@
         <v>130</v>
       </c>
       <c r="I53">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-27 17:00:34</v>
+        <v>2023-09-29 10:16:47</v>
       </c>
       <c r="B54">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C54">
-        <v>160.68</v>
+        <v>166.72</v>
       </c>
       <c r="D54">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E54">
         <v>0.08</v>
@@ -1789,21 +1789,21 @@
         <v>130</v>
       </c>
       <c r="I54">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-27 22:11:33</v>
+        <v>2023-09-29 15:26:01</v>
       </c>
       <c r="B55">
-        <v>144</v>
+        <v>134.3</v>
       </c>
       <c r="C55">
-        <v>160.68</v>
+        <v>166.72</v>
       </c>
       <c r="D55">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E55">
         <v>0.08</v>
@@ -1815,24 +1815,24 @@
         <v>13</v>
       </c>
       <c r="H55">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I55">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-28 03:20:46</v>
+        <v>2023-09-29 20:35:52</v>
       </c>
       <c r="B56">
-        <v>143.9</v>
+        <v>134.3</v>
       </c>
       <c r="C56">
-        <v>164.71</v>
+        <v>166.72</v>
       </c>
       <c r="D56">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E56">
         <v>0.08</v>
@@ -1844,24 +1844,24 @@
         <v>13</v>
       </c>
       <c r="H56">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I56">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-28 08:32:09</v>
+        <v>2023-09-30 01:41:05</v>
       </c>
       <c r="B57">
-        <v>143.9</v>
+        <v>133.8</v>
       </c>
       <c r="C57">
-        <v>164.71</v>
+        <v>166.72</v>
       </c>
       <c r="D57">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E57">
         <v>0.08</v>
@@ -1873,7 +1873,7 @@
         <v>13</v>
       </c>
       <c r="H57">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I57">
         <v>8</v>
@@ -1881,16 +1881,16 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-28 13:40:40</v>
+        <v>2023-09-30 06:51:32</v>
       </c>
       <c r="B58">
-        <v>139</v>
+        <v>133.3</v>
       </c>
       <c r="C58">
-        <v>164.71</v>
+        <v>174.91</v>
       </c>
       <c r="D58">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E58">
         <v>0.08</v>
@@ -1902,7 +1902,7 @@
         <v>13</v>
       </c>
       <c r="H58">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I58">
         <v>7</v>
@@ -1910,16 +1910,16 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-28 18:45:25</v>
+        <v>2023-09-30 12:01:41</v>
       </c>
       <c r="B59">
-        <v>139</v>
+        <v>133.3</v>
       </c>
       <c r="C59">
-        <v>164.71</v>
+        <v>174.91</v>
       </c>
       <c r="D59">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E59">
         <v>0.08</v>
@@ -1931,24 +1931,24 @@
         <v>13</v>
       </c>
       <c r="H59">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I59">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-28 23:55:41</v>
+        <v>2023-09-30 17:11:19</v>
       </c>
       <c r="B60">
-        <v>145</v>
+        <v>132.69</v>
       </c>
       <c r="C60">
-        <v>164.71</v>
+        <v>174.91</v>
       </c>
       <c r="D60">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E60">
         <v>0.08</v>
@@ -1960,24 +1960,24 @@
         <v>13</v>
       </c>
       <c r="H60">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I60">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-29 05:06:30</v>
+        <v>2023-09-30 22:21:54</v>
       </c>
       <c r="B61">
-        <v>144.5</v>
+        <v>132.69</v>
       </c>
       <c r="C61">
-        <v>166.72</v>
+        <v>174.91</v>
       </c>
       <c r="D61">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E61">
         <v>0.08</v>
@@ -1986,30 +1986,30 @@
         <v>0.07</v>
       </c>
       <c r="G61">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I61">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-29 10:16:47</v>
+        <v>2023-10-01 03:31:25</v>
       </c>
       <c r="B62">
-        <v>145</v>
+        <v>132.6</v>
       </c>
       <c r="C62">
-        <v>166.72</v>
+        <v>180.44</v>
       </c>
       <c r="D62">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E62">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F62">
         <v>0.07</v>
@@ -2018,27 +2018,27 @@
         <v>13</v>
       </c>
       <c r="H62">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I62">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-29 15:26:01</v>
+        <v>2023-10-01 08:41:25</v>
       </c>
       <c r="B63">
-        <v>134.3</v>
+        <v>132.6</v>
       </c>
       <c r="C63">
-        <v>166.72</v>
+        <v>180.44</v>
       </c>
       <c r="D63">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E63">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F63">
         <v>0.07</v>
@@ -2047,27 +2047,27 @@
         <v>13</v>
       </c>
       <c r="H63">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I63">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-29 20:35:52</v>
+        <v>2023-10-01 13:51:24</v>
       </c>
       <c r="B64">
-        <v>134.3</v>
+        <v>132.6</v>
       </c>
       <c r="C64">
-        <v>166.72</v>
+        <v>180.44</v>
       </c>
       <c r="D64">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E64">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F64">
         <v>0.07</v>
@@ -2076,27 +2076,27 @@
         <v>13</v>
       </c>
       <c r="H64">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I64">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-30 01:41:05</v>
+        <v>2023-10-01 19:01:23</v>
       </c>
       <c r="B65">
-        <v>133.8</v>
+        <v>132.1</v>
       </c>
       <c r="C65">
-        <v>166.72</v>
+        <v>180.44</v>
       </c>
       <c r="D65">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E65">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F65">
         <v>0.07</v>
@@ -2105,27 +2105,27 @@
         <v>13</v>
       </c>
       <c r="H65">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I65">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-30 06:51:32</v>
+        <v>2023-10-02 00:11:43</v>
       </c>
       <c r="B66">
-        <v>133.3</v>
+        <v>132.1</v>
       </c>
       <c r="C66">
-        <v>174.91</v>
+        <v>180.44</v>
       </c>
       <c r="D66">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E66">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F66">
         <v>0.07</v>
@@ -2137,24 +2137,24 @@
         <v>120</v>
       </c>
       <c r="I66">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-30 12:01:41</v>
+        <v>2023-10-02 05:21:28</v>
       </c>
       <c r="B67">
-        <v>133.3</v>
+        <v>132.1</v>
       </c>
       <c r="C67">
-        <v>174.91</v>
+        <v>182.65</v>
       </c>
       <c r="D67">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E67">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F67">
         <v>0.07</v>
@@ -2163,27 +2163,27 @@
         <v>13</v>
       </c>
       <c r="H67">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I67">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-30 17:11:19</v>
+        <v>2023-10-02 10:31:51</v>
       </c>
       <c r="B68">
-        <v>132.69</v>
+        <v>132.1</v>
       </c>
       <c r="C68">
-        <v>174.91</v>
+        <v>182.65</v>
       </c>
       <c r="D68">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E68">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F68">
         <v>0.07</v>
@@ -2192,53 +2192,53 @@
         <v>13</v>
       </c>
       <c r="H68">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I68">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-30 22:21:54</v>
+        <v>2023-10-02 15:41:34</v>
       </c>
       <c r="B69">
-        <v>132.69</v>
+        <v>132.1</v>
       </c>
       <c r="C69">
-        <v>174.91</v>
+        <v>182.65</v>
       </c>
       <c r="D69">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E69">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F69">
         <v>0.07</v>
       </c>
       <c r="G69">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H69">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-10-01 03:31:25</v>
+        <v>2023-10-02 20:52:15</v>
       </c>
       <c r="B70">
-        <v>132.6</v>
+        <v>132.1</v>
       </c>
       <c r="C70">
-        <v>180.44</v>
+        <v>182.65</v>
       </c>
       <c r="D70">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E70">
         <v>0.09</v>
@@ -2250,146 +2250,146 @@
         <v>13</v>
       </c>
       <c r="H70">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-10-01 08:41:25</v>
+        <v>2023-10-03 02:01:51</v>
       </c>
       <c r="B71">
-        <v>132.6</v>
+        <v>132.1</v>
       </c>
       <c r="C71">
-        <v>180.44</v>
+        <v>182.65</v>
       </c>
       <c r="D71">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E71">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F71">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G71">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H71">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-10-01 13:51:24</v>
+        <v>2023-10-03 07:11:50</v>
       </c>
       <c r="B72">
-        <v>132.6</v>
+        <v>132.1</v>
       </c>
       <c r="C72">
-        <v>180.44</v>
+        <v>192.27</v>
       </c>
       <c r="D72">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E72">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F72">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G72">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H72">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-10-01 19:01:23</v>
+        <v>2023-10-03 12:22:08</v>
       </c>
       <c r="B73">
         <v>132.1</v>
       </c>
       <c r="C73">
-        <v>180.44</v>
+        <v>192.27</v>
       </c>
       <c r="D73">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E73">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F73">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G73">
         <v>13</v>
       </c>
       <c r="H73">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-10-02 00:11:43</v>
+        <v>2023-10-03 17:32:08</v>
       </c>
       <c r="B74">
         <v>132.1</v>
       </c>
       <c r="C74">
-        <v>180.44</v>
+        <v>192.27</v>
       </c>
       <c r="D74">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E74">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F74">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G74">
         <v>13</v>
       </c>
       <c r="H74">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-10-02 05:21:28</v>
+        <v>2023-10-03 22:42:07</v>
       </c>
       <c r="B75">
         <v>132.1</v>
       </c>
       <c r="C75">
-        <v>182.65</v>
+        <v>192.27</v>
       </c>
       <c r="D75">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E75">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F75">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G75">
         <v>13</v>
@@ -2403,25 +2403,25 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-10-02 10:31:51</v>
+        <v>2023-10-04 03:52:06</v>
       </c>
       <c r="B76">
         <v>132.1</v>
       </c>
       <c r="C76">
-        <v>182.65</v>
+        <v>191.56</v>
       </c>
       <c r="D76">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E76">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F76">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G76">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H76">
         <v>121</v>
@@ -2432,74 +2432,74 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-10-02 15:41:34</v>
+        <v>2023-10-04 09:02:05</v>
       </c>
       <c r="B77">
         <v>132.1</v>
       </c>
       <c r="C77">
-        <v>182.65</v>
+        <v>191.56</v>
       </c>
       <c r="D77">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E77">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F77">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G77">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H77">
         <v>121</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-10-02 20:52:15</v>
+        <v>2023-10-04 14:13:49</v>
       </c>
       <c r="B78">
         <v>132.1</v>
       </c>
       <c r="C78">
-        <v>182.65</v>
+        <v>191.56</v>
       </c>
       <c r="D78">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E78">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F78">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G78">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H78">
         <v>121</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-10-03 02:01:51</v>
+        <v>2023-10-04 19:22:11</v>
       </c>
       <c r="B79">
         <v>132.1</v>
       </c>
       <c r="C79">
-        <v>182.65</v>
+        <v>191.56</v>
       </c>
       <c r="D79">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E79">
         <v>0.1</v>
@@ -2508,27 +2508,27 @@
         <v>0.08</v>
       </c>
       <c r="G79">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H79">
         <v>121</v>
       </c>
       <c r="I79">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-10-03 07:11:50</v>
+        <v>2023-10-05 00:32:10</v>
       </c>
       <c r="B80">
-        <v>132.1</v>
+        <v>132.6</v>
       </c>
       <c r="C80">
-        <v>192.27</v>
+        <v>191.56</v>
       </c>
       <c r="D80">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E80">
         <v>0.1</v>
@@ -2537,7 +2537,7 @@
         <v>0.08</v>
       </c>
       <c r="G80">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H80">
         <v>121</v>
@@ -2548,16 +2548,16 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-10-03 12:22:08</v>
+        <v>2023-10-05 05:42:09</v>
       </c>
       <c r="B81">
-        <v>132.1</v>
+        <v>132.6</v>
       </c>
       <c r="C81">
-        <v>192.27</v>
+        <v>195.84</v>
       </c>
       <c r="D81">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E81">
         <v>0.1</v>
@@ -2566,7 +2566,7 @@
         <v>0.08</v>
       </c>
       <c r="G81">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H81">
         <v>121</v>
@@ -2577,16 +2577,16 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-10-03 17:32:08</v>
+        <v>2023-10-05 10:52:08</v>
       </c>
       <c r="B82">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="C82">
-        <v>192.27</v>
+        <v>195.84</v>
       </c>
       <c r="D82">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E82">
         <v>0.1</v>
@@ -2595,7 +2595,7 @@
         <v>0.08</v>
       </c>
       <c r="G82">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H82">
         <v>121</v>
@@ -2606,16 +2606,16 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-10-03 22:42:07</v>
+        <v>2023-10-05 16:02:07</v>
       </c>
       <c r="B83">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="C83">
-        <v>192.27</v>
+        <v>195.84</v>
       </c>
       <c r="D83">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E83">
         <v>0.1</v>
@@ -2624,27 +2624,27 @@
         <v>0.08</v>
       </c>
       <c r="G83">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H83">
         <v>121</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-10-04 03:52:06</v>
+        <v>2023-10-05 21:12:06</v>
       </c>
       <c r="B84">
-        <v>132.1</v>
+        <v>132</v>
       </c>
       <c r="C84">
-        <v>191.56</v>
+        <v>195.84</v>
       </c>
       <c r="D84">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E84">
         <v>0.1</v>
@@ -2653,27 +2653,27 @@
         <v>0.08</v>
       </c>
       <c r="G84">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H84">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-10-04 09:02:05</v>
+        <v>2023-10-06 02:22:47</v>
       </c>
       <c r="B85">
-        <v>132.1</v>
+        <v>131.5</v>
       </c>
       <c r="C85">
-        <v>191.56</v>
+        <v>193.12</v>
       </c>
       <c r="D85">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E85">
         <v>0.1</v>
@@ -2682,10 +2682,10 @@
         <v>0.08</v>
       </c>
       <c r="G85">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H85">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I85">
         <v>3</v>
@@ -2693,16 +2693,16 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-10-04 14:13:49</v>
+        <v>2023-10-06 07:32:10</v>
       </c>
       <c r="B86">
-        <v>132.1</v>
+        <v>131.5</v>
       </c>
       <c r="C86">
-        <v>191.56</v>
+        <v>193.12</v>
       </c>
       <c r="D86">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E86">
         <v>0.1</v>
@@ -2711,10 +2711,10 @@
         <v>0.08</v>
       </c>
       <c r="G86">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H86">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I86">
         <v>3</v>
@@ -2722,16 +2722,16 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-10-04 19:22:11</v>
+        <v>2023-10-06 12:42:08</v>
       </c>
       <c r="B87">
-        <v>132.1</v>
+        <v>131.5</v>
       </c>
       <c r="C87">
-        <v>191.56</v>
+        <v>193.12</v>
       </c>
       <c r="D87">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E87">
         <v>0.1</v>
@@ -2740,10 +2740,10 @@
         <v>0.08</v>
       </c>
       <c r="G87">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H87">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I87">
         <v>3</v>
@@ -2751,16 +2751,16 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-10-05 00:32:10</v>
+        <v>2023-10-06 17:52:08</v>
       </c>
       <c r="B88">
-        <v>132.6</v>
+        <v>131</v>
       </c>
       <c r="C88">
-        <v>191.56</v>
+        <v>193.12</v>
       </c>
       <c r="D88">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E88">
         <v>0.1</v>
@@ -2769,7 +2769,7 @@
         <v>0.08</v>
       </c>
       <c r="G88">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H88">
         <v>121</v>
@@ -2780,16 +2780,16 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-10-05 05:42:09</v>
+        <v>2023-10-06 23:02:07</v>
       </c>
       <c r="B89">
-        <v>132.6</v>
+        <v>131</v>
       </c>
       <c r="C89">
-        <v>195.84</v>
+        <v>193.12</v>
       </c>
       <c r="D89">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E89">
         <v>0.1</v>
@@ -2798,27 +2798,27 @@
         <v>0.08</v>
       </c>
       <c r="G89">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H89">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I89">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-10-05 10:52:08</v>
+        <v>2023-10-07 04:12:06</v>
       </c>
       <c r="B90">
-        <v>132</v>
+        <v>131.5</v>
       </c>
       <c r="C90">
-        <v>195.84</v>
+        <v>200.85</v>
       </c>
       <c r="D90">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E90">
         <v>0.1</v>
@@ -2827,27 +2827,27 @@
         <v>0.08</v>
       </c>
       <c r="G90">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H90">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-10-05 16:02:07</v>
+        <v>2023-10-07 09:22:05</v>
       </c>
       <c r="B91">
-        <v>132</v>
+        <v>131.5</v>
       </c>
       <c r="C91">
-        <v>195.84</v>
+        <v>200.85</v>
       </c>
       <c r="D91">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E91">
         <v>0.1</v>
@@ -2856,27 +2856,27 @@
         <v>0.08</v>
       </c>
       <c r="G91">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H91">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-10-05 21:12:06</v>
+        <v>2023-10-07 14:32:42</v>
       </c>
       <c r="B92">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C92">
-        <v>195.84</v>
+        <v>200.85</v>
       </c>
       <c r="D92">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E92">
         <v>0.1</v>
@@ -2888,24 +2888,24 @@
         <v>14</v>
       </c>
       <c r="H92">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-10-06 02:22:47</v>
+        <v>2023-10-07 19:42:20</v>
       </c>
       <c r="B93">
-        <v>131.5</v>
+        <v>131</v>
       </c>
       <c r="C93">
-        <v>193.12</v>
+        <v>200.85</v>
       </c>
       <c r="D93">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E93">
         <v>0.1</v>
@@ -2917,24 +2917,24 @@
         <v>14</v>
       </c>
       <c r="H93">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-10-06 07:32:10</v>
+        <v>2023-10-08 00:52:18</v>
       </c>
       <c r="B94">
-        <v>131.5</v>
+        <v>131</v>
       </c>
       <c r="C94">
-        <v>193.12</v>
+        <v>200.85</v>
       </c>
       <c r="D94">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E94">
         <v>0.1</v>
@@ -2946,24 +2946,24 @@
         <v>14</v>
       </c>
       <c r="H94">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-10-06 12:42:08</v>
+        <v>2023-10-08 06:03:04</v>
       </c>
       <c r="B95">
-        <v>131.5</v>
+        <v>131</v>
       </c>
       <c r="C95">
-        <v>193.12</v>
+        <v>194.61</v>
       </c>
       <c r="D95">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E95">
         <v>0.1</v>
@@ -2975,24 +2975,24 @@
         <v>14</v>
       </c>
       <c r="H95">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-10-06 17:52:08</v>
+        <v>2023-10-08 11:12:29</v>
       </c>
       <c r="B96">
-        <v>131</v>
+        <v>130.5</v>
       </c>
       <c r="C96">
-        <v>193.12</v>
+        <v>194.61</v>
       </c>
       <c r="D96">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E96">
         <v>0.1</v>
@@ -3001,27 +3001,27 @@
         <v>0.08</v>
       </c>
       <c r="G96">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H96">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I96">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-10-06 23:02:07</v>
+        <v>2023-10-08 16:22:29</v>
       </c>
       <c r="B97">
-        <v>131</v>
+        <v>129.5</v>
       </c>
       <c r="C97">
-        <v>193.12</v>
+        <v>194.61</v>
       </c>
       <c r="D97">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E97">
         <v>0.1</v>
@@ -3030,27 +3030,27 @@
         <v>0.08</v>
       </c>
       <c r="G97">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H97">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I97">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-10-07 04:12:06</v>
+        <v>2023-10-08 21:32:28</v>
       </c>
       <c r="B98">
-        <v>131.5</v>
+        <v>129.5</v>
       </c>
       <c r="C98">
-        <v>200.85</v>
+        <v>194.61</v>
       </c>
       <c r="D98">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E98">
         <v>0.1</v>
@@ -3059,27 +3059,27 @@
         <v>0.08</v>
       </c>
       <c r="G98">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H98">
         <v>122</v>
       </c>
       <c r="I98">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-10-07 09:22:05</v>
+        <v>2023-10-09 02:42:55</v>
       </c>
       <c r="B99">
-        <v>131.5</v>
+        <v>129.5</v>
       </c>
       <c r="C99">
-        <v>200.85</v>
+        <v>200.13</v>
       </c>
       <c r="D99">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E99">
         <v>0.1</v>
@@ -3088,24 +3088,24 @@
         <v>0.08</v>
       </c>
       <c r="G99">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H99">
         <v>122</v>
       </c>
       <c r="I99">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-10-07 14:32:42</v>
+        <v>2023-10-09 07:54:16</v>
       </c>
       <c r="B100">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C100">
-        <v>200.85</v>
+        <v>200.13</v>
       </c>
       <c r="D100">
         <v>44</v>
@@ -3117,27 +3117,27 @@
         <v>0.08</v>
       </c>
       <c r="G100">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H100">
         <v>122</v>
       </c>
       <c r="I100">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-07 19:42:20</v>
+        <v>2023-10-09 13:04:49</v>
       </c>
       <c r="B101">
-        <v>131</v>
+        <v>132.79</v>
       </c>
       <c r="C101">
-        <v>200.85</v>
+        <v>200.13</v>
       </c>
       <c r="D101">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E101">
         <v>0.1</v>
@@ -3146,27 +3146,27 @@
         <v>0.08</v>
       </c>
       <c r="G101">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H101">
         <v>122</v>
       </c>
       <c r="I101">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-08 00:52:18</v>
+        <v>2023-10-09 18:13:40</v>
       </c>
       <c r="B102">
-        <v>131</v>
+        <v>132.79</v>
       </c>
       <c r="C102">
-        <v>200.85</v>
+        <v>200.13</v>
       </c>
       <c r="D102">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E102">
         <v>0.1</v>
@@ -3175,27 +3175,27 @@
         <v>0.08</v>
       </c>
       <c r="G102">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H102">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I102">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-08 06:03:04</v>
+        <v>2023-10-09 23:22:54</v>
       </c>
       <c r="B103">
-        <v>131</v>
+        <v>132.8</v>
       </c>
       <c r="C103">
-        <v>194.61</v>
+        <v>200.13</v>
       </c>
       <c r="D103">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E103">
         <v>0.1</v>
@@ -3204,27 +3204,27 @@
         <v>0.08</v>
       </c>
       <c r="G103">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H103">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I103">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-08 11:12:29</v>
+        <v>2023-10-10 04:33:16</v>
       </c>
       <c r="B104">
-        <v>130.5</v>
+        <v>132.8</v>
       </c>
       <c r="C104">
-        <v>194.61</v>
+        <v>196.37</v>
       </c>
       <c r="D104">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E104">
         <v>0.1</v>
@@ -3236,24 +3236,24 @@
         <v>13</v>
       </c>
       <c r="H104">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I104">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-08 16:22:29</v>
+        <v>2023-10-10 09:43:33</v>
       </c>
       <c r="B105">
-        <v>129.5</v>
+        <v>132.8</v>
       </c>
       <c r="C105">
-        <v>194.61</v>
+        <v>196.37</v>
       </c>
       <c r="D105">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E105">
         <v>0.1</v>
@@ -3265,24 +3265,24 @@
         <v>13</v>
       </c>
       <c r="H105">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I105">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-08 21:32:28</v>
+        <v>2023-10-10 14:54:08</v>
       </c>
       <c r="B106">
-        <v>129.5</v>
+        <v>145</v>
       </c>
       <c r="C106">
-        <v>194.61</v>
+        <v>196.37</v>
       </c>
       <c r="D106">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E106">
         <v>0.1</v>
@@ -3291,27 +3291,27 @@
         <v>0.08</v>
       </c>
       <c r="G106">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H106">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I106">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-09 02:42:55</v>
+        <v>2023-10-10 20:03:14</v>
       </c>
       <c r="B107">
-        <v>129.5</v>
+        <v>145</v>
       </c>
       <c r="C107">
-        <v>200.13</v>
+        <v>196.37</v>
       </c>
       <c r="D107">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E107">
         <v>0.1</v>
@@ -3320,27 +3320,27 @@
         <v>0.08</v>
       </c>
       <c r="G107">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H107">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I107">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-09 07:54:16</v>
+        <v>2023-10-11 01:13:24</v>
       </c>
       <c r="B108">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C108">
-        <v>200.13</v>
+        <v>196.37</v>
       </c>
       <c r="D108">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E108">
         <v>0.1</v>
@@ -3349,27 +3349,27 @@
         <v>0.08</v>
       </c>
       <c r="G108">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H108">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I108">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-09 13:04:49</v>
+        <v>2023-10-11 06:23:20</v>
       </c>
       <c r="B109">
-        <v>132.79</v>
+        <v>145</v>
       </c>
       <c r="C109">
-        <v>200.13</v>
+        <v>191.75</v>
       </c>
       <c r="D109">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E109">
         <v>0.1</v>
@@ -3378,27 +3378,27 @@
         <v>0.08</v>
       </c>
       <c r="G109">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H109">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I109">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-09 18:13:40</v>
+        <v>2023-10-11 11:35:49</v>
       </c>
       <c r="B110">
-        <v>132.79</v>
+        <v>145</v>
       </c>
       <c r="C110">
-        <v>200.13</v>
+        <v>191.75</v>
       </c>
       <c r="D110">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E110">
         <v>0.1</v>
@@ -3407,24 +3407,24 @@
         <v>0.08</v>
       </c>
       <c r="G110">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H110">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I110">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-09 23:22:54</v>
+        <v>2023-10-11 16:43:26</v>
       </c>
       <c r="B111">
-        <v>132.8</v>
+        <v>145</v>
       </c>
       <c r="C111">
-        <v>200.13</v>
+        <v>191.75</v>
       </c>
       <c r="D111">
         <v>40</v>
@@ -3436,10 +3436,10 @@
         <v>0.08</v>
       </c>
       <c r="G111">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H111">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I111">
         <v>12</v>
@@ -3447,13 +3447,13 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-10 04:33:16</v>
+        <v>2023-10-11 21:53:25</v>
       </c>
       <c r="B112">
-        <v>132.8</v>
+        <v>146</v>
       </c>
       <c r="C112">
-        <v>196.37</v>
+        <v>191.75</v>
       </c>
       <c r="D112">
         <v>40</v>
@@ -3465,27 +3465,27 @@
         <v>0.08</v>
       </c>
       <c r="G112">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H112">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I112">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-10 09:43:33</v>
+        <v>2023-10-12 03:03:24</v>
       </c>
       <c r="B113">
-        <v>132.8</v>
+        <v>146</v>
       </c>
       <c r="C113">
-        <v>196.37</v>
+        <v>188.44</v>
       </c>
       <c r="D113">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E113">
         <v>0.1</v>
@@ -3494,10 +3494,10 @@
         <v>0.08</v>
       </c>
       <c r="G113">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H113">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I113">
         <v>12</v>
@@ -3505,16 +3505,16 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-10 14:54:08</v>
+        <v>2023-10-12 08:13:23</v>
       </c>
       <c r="B114">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C114">
-        <v>196.37</v>
+        <v>188.44</v>
       </c>
       <c r="D114">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E114">
         <v>0.1</v>
@@ -3526,24 +3526,24 @@
         <v>12</v>
       </c>
       <c r="H114">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I114">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-10 20:03:14</v>
+        <v>2023-10-12 13:18:45</v>
       </c>
       <c r="B115">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C115">
-        <v>196.37</v>
+        <v>188.44</v>
       </c>
       <c r="D115">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E115">
         <v>0.1</v>
@@ -3555,7 +3555,7 @@
         <v>12</v>
       </c>
       <c r="H115">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I115">
         <v>12</v>
@@ -3563,16 +3563,16 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-11 01:13:24</v>
+        <v>2023-10-12 18:29:40</v>
       </c>
       <c r="B116">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C116">
-        <v>196.37</v>
+        <v>188.44</v>
       </c>
       <c r="D116">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E116">
         <v>0.1</v>
@@ -3584,7 +3584,7 @@
         <v>12</v>
       </c>
       <c r="H116">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I116">
         <v>12</v>
@@ -3592,16 +3592,16 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-11 06:23:20</v>
+        <v>2023-10-12 23:41:13</v>
       </c>
       <c r="B117">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C117">
-        <v>191.75</v>
+        <v>188.44</v>
       </c>
       <c r="D117">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E117">
         <v>0.1</v>
@@ -3616,21 +3616,21 @@
         <v>124</v>
       </c>
       <c r="I117">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-11 11:35:49</v>
+        <v>2023-10-13 04:50:08</v>
       </c>
       <c r="B118">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C118">
-        <v>191.75</v>
+        <v>194.48</v>
       </c>
       <c r="D118">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E118">
         <v>0.1</v>
@@ -3645,21 +3645,21 @@
         <v>124</v>
       </c>
       <c r="I118">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-11 16:43:26</v>
+        <v>2023-10-13 09:59:06</v>
       </c>
       <c r="B119">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C119">
-        <v>191.75</v>
+        <v>194.48</v>
       </c>
       <c r="D119">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E119">
         <v>0.1</v>
@@ -3674,18 +3674,18 @@
         <v>124</v>
       </c>
       <c r="I119">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-11 21:53:25</v>
+        <v>2023-10-13 15:09:44</v>
       </c>
       <c r="B120">
         <v>146</v>
       </c>
       <c r="C120">
-        <v>191.75</v>
+        <v>194.48</v>
       </c>
       <c r="D120">
         <v>40</v>
@@ -3703,18 +3703,18 @@
         <v>124</v>
       </c>
       <c r="I120">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-12 03:03:24</v>
+        <v>2023-10-13 20:19:10</v>
       </c>
       <c r="B121">
         <v>146</v>
       </c>
       <c r="C121">
-        <v>188.44</v>
+        <v>194.48</v>
       </c>
       <c r="D121">
         <v>40</v>
@@ -3737,16 +3737,16 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-12 08:13:23</v>
+        <v>2023-10-14 01:29:14</v>
       </c>
       <c r="B122">
         <v>146</v>
       </c>
       <c r="C122">
-        <v>188.44</v>
+        <v>194.48</v>
       </c>
       <c r="D122">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E122">
         <v>0.1</v>
@@ -3766,16 +3766,16 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-12 13:18:45</v>
+        <v>2023-10-14 06:39:25</v>
       </c>
       <c r="B123">
         <v>146</v>
       </c>
       <c r="C123">
-        <v>188.44</v>
+        <v>181.81</v>
       </c>
       <c r="D123">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E123">
         <v>0.1</v>
@@ -3795,13 +3795,13 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-12 18:29:40</v>
+        <v>2023-10-14 11:49:19</v>
       </c>
       <c r="B124">
         <v>146</v>
       </c>
       <c r="C124">
-        <v>188.44</v>
+        <v>181.81</v>
       </c>
       <c r="D124">
         <v>40</v>
@@ -3816,7 +3816,7 @@
         <v>12</v>
       </c>
       <c r="H124">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I124">
         <v>12</v>
@@ -3824,16 +3824,16 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-12 23:41:13</v>
+        <v>2023-10-14 16:59:19</v>
       </c>
       <c r="B125">
         <v>146</v>
       </c>
       <c r="C125">
-        <v>188.44</v>
+        <v>181.81</v>
       </c>
       <c r="D125">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E125">
         <v>0.1</v>
@@ -3845,24 +3845,24 @@
         <v>12</v>
       </c>
       <c r="H125">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I125">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-13 04:50:08</v>
+        <v>2023-10-14 22:09:44</v>
       </c>
       <c r="B126">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C126">
-        <v>194.48</v>
+        <v>181.81</v>
       </c>
       <c r="D126">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E126">
         <v>0.1</v>
@@ -3874,24 +3874,24 @@
         <v>12</v>
       </c>
       <c r="H126">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I126">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-13 09:59:06</v>
+        <v>2023-10-15 03:19:25</v>
       </c>
       <c r="B127">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C127">
-        <v>194.48</v>
+        <v>186.88</v>
       </c>
       <c r="D127">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E127">
         <v>0.1</v>
@@ -3903,21 +3903,21 @@
         <v>12</v>
       </c>
       <c r="H127">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I127">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-13 15:09:44</v>
+        <v>2023-10-15 08:29:24</v>
       </c>
       <c r="B128">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C128">
-        <v>194.48</v>
+        <v>186.88</v>
       </c>
       <c r="D128">
         <v>40</v>
@@ -3932,21 +3932,21 @@
         <v>12</v>
       </c>
       <c r="H128">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I128">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-13 20:19:10</v>
+        <v>2023-10-15 13:39:23</v>
       </c>
       <c r="B129">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C129">
-        <v>194.48</v>
+        <v>186.88</v>
       </c>
       <c r="D129">
         <v>40</v>
@@ -3961,7 +3961,7 @@
         <v>12</v>
       </c>
       <c r="H129">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I129">
         <v>12</v>
@@ -3969,13 +3969,13 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-14 01:29:14</v>
+        <v>2023-10-15 18:49:30</v>
       </c>
       <c r="B130">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C130">
-        <v>194.48</v>
+        <v>186.88</v>
       </c>
       <c r="D130">
         <v>40</v>
@@ -3993,18 +3993,18 @@
         <v>124</v>
       </c>
       <c r="I130">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-14 06:39:25</v>
+        <v>2023-10-15 23:59:29</v>
       </c>
       <c r="B131">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C131">
-        <v>181.81</v>
+        <v>186.88</v>
       </c>
       <c r="D131">
         <v>40</v>
@@ -4022,21 +4022,21 @@
         <v>124</v>
       </c>
       <c r="I131">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-14 11:49:19</v>
+        <v>2023-10-16 05:10:28</v>
       </c>
       <c r="B132">
-        <v>146</v>
+        <v>144.5</v>
       </c>
       <c r="C132">
-        <v>181.81</v>
+        <v>194.54</v>
       </c>
       <c r="D132">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E132">
         <v>0.1</v>
@@ -4048,7 +4048,7 @@
         <v>12</v>
       </c>
       <c r="H132">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I132">
         <v>12</v>
@@ -4056,16 +4056,16 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-14 16:59:19</v>
+        <v>2023-10-16 10:19:34</v>
       </c>
       <c r="B133">
-        <v>146</v>
+        <v>144.5</v>
       </c>
       <c r="C133">
-        <v>181.81</v>
+        <v>194.54</v>
       </c>
       <c r="D133">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E133">
         <v>0.1</v>
@@ -4077,21 +4077,21 @@
         <v>12</v>
       </c>
       <c r="H133">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I133">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-14 22:09:44</v>
+        <v>2023-10-16 15:29:33</v>
       </c>
       <c r="B134">
-        <v>147</v>
+        <v>141.5</v>
       </c>
       <c r="C134">
-        <v>181.81</v>
+        <v>194.54</v>
       </c>
       <c r="D134">
         <v>39</v>
@@ -4106,24 +4106,24 @@
         <v>12</v>
       </c>
       <c r="H134">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I134">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-15 03:19:25</v>
+        <v>2023-10-16 20:40:33</v>
       </c>
       <c r="B135">
-        <v>145</v>
+        <v>141.5</v>
       </c>
       <c r="C135">
-        <v>186.88</v>
+        <v>194.54</v>
       </c>
       <c r="D135">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E135">
         <v>0.1</v>
@@ -4138,21 +4138,21 @@
         <v>125</v>
       </c>
       <c r="I135">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-15 08:29:24</v>
+        <v>2023-10-17 01:49:37</v>
       </c>
       <c r="B136">
-        <v>145</v>
+        <v>141.5</v>
       </c>
       <c r="C136">
-        <v>186.88</v>
+        <v>194.54</v>
       </c>
       <c r="D136">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E136">
         <v>0.1</v>
@@ -4167,21 +4167,21 @@
         <v>125</v>
       </c>
       <c r="I136">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-15 13:39:23</v>
+        <v>2023-10-17 07:00:47</v>
       </c>
       <c r="B137">
-        <v>145</v>
+        <v>141.5</v>
       </c>
       <c r="C137">
-        <v>186.88</v>
+        <v>204.42</v>
       </c>
       <c r="D137">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E137">
         <v>0.1</v>
@@ -4201,16 +4201,16 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-15 18:49:30</v>
+        <v>2023-10-17 12:09:42</v>
       </c>
       <c r="B138">
-        <v>145</v>
+        <v>141.5</v>
       </c>
       <c r="C138">
-        <v>186.88</v>
+        <v>204.42</v>
       </c>
       <c r="D138">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E138">
         <v>0.1</v>
@@ -4219,27 +4219,27 @@
         <v>0.08</v>
       </c>
       <c r="G138">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H138">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I138">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-15 23:59:29</v>
+        <v>2023-10-17 17:21:03</v>
       </c>
       <c r="B139">
-        <v>144</v>
+        <v>141.5</v>
       </c>
       <c r="C139">
-        <v>186.88</v>
+        <v>204.42</v>
       </c>
       <c r="D139">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E139">
         <v>0.1</v>
@@ -4248,7 +4248,7 @@
         <v>0.08</v>
       </c>
       <c r="G139">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H139">
         <v>124</v>
@@ -4259,16 +4259,16 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-16 05:10:28</v>
+        <v>2023-10-17 22:30:08</v>
       </c>
       <c r="B140">
-        <v>144.5</v>
+        <v>141.5</v>
       </c>
       <c r="C140">
-        <v>194.54</v>
+        <v>204.42</v>
       </c>
       <c r="D140">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E140">
         <v>0.1</v>
@@ -4277,27 +4277,27 @@
         <v>0.08</v>
       </c>
       <c r="G140">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H140">
         <v>124</v>
       </c>
       <c r="I140">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-16 10:19:34</v>
+        <v>2023-10-18 03:41:07</v>
       </c>
       <c r="B141">
-        <v>144.5</v>
+        <v>141.5</v>
       </c>
       <c r="C141">
-        <v>194.54</v>
+        <v>203.58</v>
       </c>
       <c r="D141">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E141">
         <v>0.1</v>
@@ -4306,10 +4306,10 @@
         <v>0.08</v>
       </c>
       <c r="G141">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H141">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I141">
         <v>12</v>
@@ -4317,16 +4317,16 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-16 15:29:33</v>
+        <v>2023-10-18 08:51:51</v>
       </c>
       <c r="B142">
-        <v>141.5</v>
+        <v>145</v>
       </c>
       <c r="C142">
-        <v>194.54</v>
+        <v>203.58</v>
       </c>
       <c r="D142">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E142">
         <v>0.1</v>
@@ -4335,27 +4335,27 @@
         <v>0.08</v>
       </c>
       <c r="G142">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H142">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I142">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-16 20:40:33</v>
+        <v>2023-10-18 14:00:09</v>
       </c>
       <c r="B143">
-        <v>141.5</v>
+        <v>145</v>
       </c>
       <c r="C143">
-        <v>194.54</v>
+        <v>203.58</v>
       </c>
       <c r="D143">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E143">
         <v>0.1</v>
@@ -4364,10 +4364,10 @@
         <v>0.08</v>
       </c>
       <c r="G143">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H143">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I143">
         <v>12</v>
@@ -4375,16 +4375,16 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-17 01:49:37</v>
+        <v>2023-10-18 19:10:08</v>
       </c>
       <c r="B144">
-        <v>141.5</v>
+        <v>144.9</v>
       </c>
       <c r="C144">
-        <v>194.54</v>
+        <v>203.58</v>
       </c>
       <c r="D144">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E144">
         <v>0.1</v>
@@ -4393,10 +4393,10 @@
         <v>0.08</v>
       </c>
       <c r="G144">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H144">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I144">
         <v>12</v>
@@ -4404,16 +4404,16 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-17 07:00:47</v>
+        <v>2023-10-19 00:20:07</v>
       </c>
       <c r="B145">
-        <v>141.5</v>
+        <v>144.9</v>
       </c>
       <c r="C145">
-        <v>204.42</v>
+        <v>203.58</v>
       </c>
       <c r="D145">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E145">
         <v>0.1</v>
@@ -4422,10 +4422,10 @@
         <v>0.08</v>
       </c>
       <c r="G145">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H145">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I145">
         <v>12</v>
@@ -4433,16 +4433,16 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-17 12:09:42</v>
+        <v>2023-10-19 05:30:06</v>
       </c>
       <c r="B146">
-        <v>141.5</v>
+        <v>144.9</v>
       </c>
       <c r="C146">
-        <v>204.42</v>
+        <v>190.97</v>
       </c>
       <c r="D146">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E146">
         <v>0.1</v>
@@ -4454,10 +4454,10 @@
         <v>11</v>
       </c>
       <c r="H146">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I146">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
